--- a/PC/Action 18/Results.xlsx
+++ b/PC/Action 18/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instagram\Publicaciones\PC\Video\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\PC\Action 18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C49C1C-7487-425A-AC92-51C0C0B43192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E0F86-3459-4768-855C-9188BBBED88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla de pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla total" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
+    <sheet name="Total table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -254,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,14 +554,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +571,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -579,7 +579,7 @@
         <v>60726</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -587,7 +587,7 @@
         <v>60.725999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -607,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -627,7 +627,7 @@
         <v>90.218000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -647,7 +647,7 @@
         <v>405.18099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>314.96299999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -687,7 +687,7 @@
         <v>114.82306837606838</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -707,7 +707,7 @@
         <v>96.301999999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -727,7 +727,7 @@
         <v>112.9075</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -747,7 +747,7 @@
         <v>16.605500000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -767,7 +767,7 @@
         <v>43.147249675150405</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -787,7 +787,7 @@
         <v>1861.6851545297666</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -807,7 +807,7 @@
         <v>99.334000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -827,7 +827,7 @@
         <v>105.12782105263157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -847,7 +847,7 @@
         <v>127.93900000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -867,7 +867,7 @@
         <v>110.20235423930863</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -887,7 +887,7 @@
         <v>3.4890000000000043</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -907,7 +907,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
         <v>60759</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -933,7 +933,7 @@
         <v>60.759</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -973,7 +973,7 @@
         <v>91.42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -993,7 +993,7 @@
         <v>406.738</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>315.31799999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>119.40739316239316</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>102.297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>112.351</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>10.054000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>44.539898733676509</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>1983.8025792061585</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>104.81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>109.4061052631579</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>129.9365</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>114.81485253180993</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>3.9399999999999977</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>41382</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>41.381999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>90.572999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>434.49099999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>343.91800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>121.280925</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>101.33324999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>113.5155</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>12.18225000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>49.536148992498006</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>2453.8300570069614</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>105.3295</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>110.27553125</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>134.14000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>115.75008419615712</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>5.152000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>45.014000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>86.953999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>386.07100000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>299.11700000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>114.35600000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>94.495000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>104.901</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>10.405999999999992</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>49.568186713084998</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>2457.0051340232562</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>98.912999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>102.63769014084507</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>132.5395</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>108.55099408518112</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>4.9969999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>39797</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>39.796999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>90.644000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>431.36099999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>340.71699999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>118.86464935064936</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>94.749499999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>108.48399999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>13.734499999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>53.362280270846519</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>2847.5329557043756</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>97.77</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>19</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>106.73898412698412</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>134.97149999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>112.06133839192475</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>3.6670000000000016</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>39285</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>39.284999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>88.637</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>411.81</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>323.173</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>117.20614473684211</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>95.778000000000006</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>104.98575</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>9.2077499999999901</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>53.271929467266716</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>2837.89846916544</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>18</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>98.669000000000011</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>104.27333870967742</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>20</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>137.12199999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>21</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>110.65565382625883</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>3.5435000000000159</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>61801</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>61.801000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>88.524000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>443.38200000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>354.858</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>112.70267226890756</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>95.757000000000005</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>103.11</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>7.3529999999999944</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>43.205329442156085</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1866.7004922052392</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>100.17100000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>102.44066315789473</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>120.30149999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>21</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>108.27017131531555</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>3.416000000000011</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>40304</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>40.304000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>93.846999999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>457.40899999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>363.56200000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>118.88557692307693</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>97.29249999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>111.81575000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>15</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>14.523250000000019</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>51.415960557898828</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>2643.601000091408</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>101.03399999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>106.86251612903226</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>20</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>133.1225</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>113.00370601324794</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>3.9569999999999936</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>2</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>42.923999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>90.253</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>10</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>469.28699999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>379.03399999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>12</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>121.19267469879517</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>13</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>97.638000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>113.346</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>15.707999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>52.55612096609341</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>17</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>2762.1458510026432</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>18</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>102.04600000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>109.86698507462687</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>20</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>142.24549999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>21</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>114.83787029800432</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>22</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>5.3570000000000135</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>32</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>2</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>43.993000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>9</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>89.503</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>388.95400000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>299.45100000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>119.52934117647058</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>13</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>97.407499999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>14</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>110.82550000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>15</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>13.418000000000006</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>50.85587925406108</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>17</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>2586.3204547036403</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>18</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>101.825</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>19</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>108.28346376811594</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>20</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>134.01</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>21</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>113.51477977181568</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>22</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>5.2120000000000033</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>23</v>
       </c>
@@ -4031,22 +4031,22 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>86.953999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>469.28699999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>382.33299999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>117.82484456932032</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>97.304974999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>109.6242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>12.319225000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>2.9545796671425832</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>8.7295410094923778</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>100.99015</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>118.03310605303696</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>117.81846250000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>117.7912199069179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>1.9932649809765337</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>5608.2858642327938</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>4788.5280962500001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>4604.443395986842</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>7255.073801153846</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>1038.4392647939217</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24">
         <f>G17-(G3*B6)</f>
         <v>1469.4058952327941</v>

--- a/PC/Action 18/Results.xlsx
+++ b/PC/Action 18/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\PC\Action 18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/elisa_jimenez_uclm_es/Documents/Elisa/Estudio instagram/Measurements/PC/Action 18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E0F86-3459-4768-855C-9188BBBED88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{80C49C1C-7487-425A-AC92-51C0C0B43192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21CDE501-1AF8-4094-96CC-92CCB0865676}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
@@ -168,19 +168,19 @@
     <t>GeometricMean (w) (Time in s)</t>
   </si>
   <si>
-    <t>Mean - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Median - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Min Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>Max Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>SD Measurement Consumption(w/s) (Time in s)</t>
+    <t>Mean - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Median - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Min Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>Max Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>SD Measurement Consumption(w*s) (Time in s)</t>
   </si>
 </sst>
 </file>
@@ -4031,7 +4031,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
